--- a/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A042FD-89C7-45DF-847A-1433349F1B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F97DC0-B9F3-40BE-94D8-31E89CE5B469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4FC38986-760E-4B77-86B6-E8CF3181BB6A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{475D707C-AEEF-4F4F-9FC5-9FFC1C6144B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>90,73%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>93,88%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>9,27%</t>
   </si>
   <si>
@@ -131,64 +248,55 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,114 +356,6 @@
     <t>18,22%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
     <t>89,99%</t>
   </si>
   <si>
@@ -413,6 +413,102 @@
     <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
   </si>
   <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
     <t>91,46%</t>
   </si>
   <si>
@@ -467,52 +563,58 @@
     <t>13,57%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>87,7%</t>
@@ -569,108 +671,6 @@
     <t>14,6%</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
     <t>90,12%</t>
   </si>
   <si>
@@ -728,6 +728,96 @@
     <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
   </si>
   <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
@@ -782,58 +872,58 @@
     <t>9,57%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>92,72%</t>
@@ -878,96 +968,6 @@
     <t>8,21%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
     <t>94,32%</t>
   </si>
   <si>
@@ -1019,6 +1019,87 @@
     <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
     <t>94,47%</t>
   </si>
   <si>
@@ -1073,58 +1154,34 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>87,88%</t>
@@ -1167,63 +1224,6 @@
   </si>
   <si>
     <t>11,97%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
   </si>
   <si>
     <t>91,89%</t>
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F005BEA6-F38D-4445-8879-F8731CB171B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0989C4-EB17-470B-A712-64AA917FC5B5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>101286</v>
+        <v>11254</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1784,10 +1784,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>101222</v>
+        <v>15401</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1799,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>314</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>202508</v>
+        <v>26655</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1820,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>10345</v>
+        <v>2475</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1835,10 +1835,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>8839</v>
+        <v>2158</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1850,10 +1850,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>19184</v>
+        <v>4633</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1871,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1886,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1901,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2079,10 +2079,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>82162</v>
+        <v>101286</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2094,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>79025</v>
+        <v>101222</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2109,10 +2109,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="N10" s="7">
-        <v>161187</v>
+        <v>202508</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2130,10 +2130,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>7881</v>
+        <v>10345</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2145,10 +2145,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>16964</v>
+        <v>8839</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2160,10 +2160,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>24845</v>
+        <v>19184</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2181,10 +2181,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2196,10 +2196,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2211,10 +2211,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2234,49 +2234,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>11254</v>
+        <v>72504</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>104</v>
+      </c>
+      <c r="I13" s="7">
+        <v>62228</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15401</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>218</v>
+      </c>
+      <c r="N13" s="7">
+        <v>134732</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>34</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26655</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2285,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>2475</v>
+        <v>5365</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6980</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2158</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>19</v>
+      </c>
+      <c r="N14" s="7">
+        <v>12345</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4633</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,10 +2336,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2351,10 +2351,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2366,10 +2366,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2383,55 +2383,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>72504</v>
+        <v>82162</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>102</v>
+      </c>
+      <c r="I16" s="7">
+        <v>79025</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>104</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62228</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>222</v>
+      </c>
+      <c r="N16" s="7">
+        <v>161187</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>218</v>
-      </c>
-      <c r="N16" s="7">
-        <v>134732</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,25 +2440,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>5365</v>
+        <v>7881</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>6980</v>
+        <v>16964</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2470,10 +2470,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>12345</v>
+        <v>24845</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2491,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2506,10 +2506,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2521,10 +2521,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC564A74-AF93-4174-A9EB-D31DE53E61DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA150358-4E47-4B18-838C-184760AAA2F7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,10 +2827,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>104911</v>
+        <v>11885</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2842,10 +2842,10 @@
         <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>100675</v>
+        <v>11094</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>127</v>
@@ -2854,22 +2854,22 @@
         <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22980</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
-        <v>306</v>
-      </c>
-      <c r="N4" s="7">
-        <v>205586</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,49 +2878,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>9795</v>
+        <v>1155</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1796</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11924</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2951</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="7">
-        <v>32</v>
-      </c>
-      <c r="N5" s="7">
-        <v>21720</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,10 +2929,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2944,10 +2944,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>112599</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2959,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227306</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2988,13 +2988,13 @@
         <v>55890</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -3003,13 +3003,13 @@
         <v>55333</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -3018,13 +3018,13 @@
         <v>111223</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3039,13 @@
         <v>6312</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3054,13 +3054,13 @@
         <v>6430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -3069,13 +3069,13 @@
         <v>12742</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,49 +3137,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>84460</v>
+        <v>104911</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>152</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100675</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="7">
-        <v>109</v>
-      </c>
-      <c r="I10" s="7">
-        <v>85093</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>306</v>
+      </c>
+      <c r="N10" s="7">
+        <v>205586</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="7">
-        <v>223</v>
-      </c>
-      <c r="N10" s="7">
-        <v>169553</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,49 +3188,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>11841</v>
+        <v>9795</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11924</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7884</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7">
+        <v>21720</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>19724</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,10 +3239,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3254,10 +3254,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3269,10 +3269,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3292,49 +3292,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7">
-        <v>11885</v>
+        <v>72704</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>105</v>
+      </c>
+      <c r="I13" s="7">
+        <v>68193</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11094</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>217</v>
+      </c>
+      <c r="N13" s="7">
+        <v>140897</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>22980</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,40 +3343,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>1155</v>
+        <v>7049</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6304</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1796</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>2951</v>
+        <v>13353</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>189</v>
@@ -3394,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3409,10 +3409,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3424,10 +3424,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3441,16 +3441,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>72704</v>
+        <v>84460</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>192</v>
@@ -3462,10 +3462,10 @@
         <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7">
-        <v>68193</v>
+        <v>85093</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>195</v>
@@ -3477,10 +3477,10 @@
         <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N16" s="7">
-        <v>140897</v>
+        <v>169553</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>198</v>
@@ -3498,10 +3498,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>7049</v>
+        <v>11841</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>201</v>
@@ -3513,10 +3513,10 @@
         <v>203</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>6304</v>
+        <v>7884</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>204</v>
@@ -3528,10 +3528,10 @@
         <v>206</v>
       </c>
       <c r="M17" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>13353</v>
+        <v>19724</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>207</v>
@@ -3549,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3564,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3579,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3767,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7771AB-441E-4CF5-9901-F65CB9BE3126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E3830B-B582-41D9-8B8B-76E377E7F8B7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>105291</v>
+        <v>14806</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3897,37 +3897,37 @@
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13869</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="7">
-        <v>152</v>
-      </c>
-      <c r="I4" s="7">
-        <v>97276</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28675</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M4" s="7">
-        <v>304</v>
-      </c>
-      <c r="N4" s="7">
-        <v>202567</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3936,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3301</v>
+        <v>671</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1133</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1804</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10685</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="7">
-        <v>20</v>
-      </c>
-      <c r="N5" s="7">
-        <v>13986</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,10 +3987,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4002,10 +4002,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107961</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4017,10 +4017,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>216553</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4046,13 +4046,13 @@
         <v>55656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -4061,13 +4061,13 @@
         <v>50990</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -4076,13 +4076,13 @@
         <v>106646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4097,13 @@
         <v>4664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4112,13 +4112,13 @@
         <v>4848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>9512</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4195,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>98988</v>
+        <v>105291</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
+        <v>152</v>
+      </c>
+      <c r="I10" s="7">
+        <v>97276</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" s="7">
+        <v>304</v>
+      </c>
+      <c r="N10" s="7">
+        <v>202567</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="H10" s="7">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7">
-        <v>99069</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M10" s="7">
-        <v>265</v>
-      </c>
-      <c r="N10" s="7">
-        <v>198057</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4246,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7769</v>
+        <v>3301</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10685</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>20</v>
+      </c>
+      <c r="N11" s="7">
+        <v>13986</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9938</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M11" s="7">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17707</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4312,10 +4312,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="I12" s="7">
-        <v>109007</v>
+        <v>107961</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4327,10 +4327,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="N12" s="7">
-        <v>215764</v>
+        <v>216553</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4350,40 +4350,40 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>14806</v>
+        <v>72373</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>114</v>
+      </c>
+      <c r="I13" s="7">
+        <v>72500</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13869</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="N13" s="7">
-        <v>28675</v>
+        <v>144873</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>283</v>
@@ -4392,7 +4392,7 @@
         <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +4401,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>671</v>
+        <v>4490</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>1133</v>
+        <v>3088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>1804</v>
+        <v>7578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4467,10 +4467,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4482,10 +4482,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4499,55 +4499,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7">
-        <v>72373</v>
+        <v>98988</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="I16" s="7">
-        <v>72500</v>
+        <v>99069</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="N16" s="7">
-        <v>144873</v>
+        <v>198057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4556,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>4490</v>
+        <v>7769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>3088</v>
+        <v>9938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>7578</v>
+        <v>17707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4607,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4622,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4637,10 +4637,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4696,7 +4696,7 @@
         <v>680817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>315</v>
@@ -4747,7 +4747,7 @@
         <v>50587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>323</v>
@@ -4825,7 +4825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5032420A-D295-401C-8AE0-45DDAB261F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1F86BE-6989-4C99-9D5A-BA031F32B281}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,49 +4943,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>157716</v>
+        <v>6505</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8647</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15151</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H4" s="7">
-        <v>156</v>
-      </c>
-      <c r="I4" s="7">
-        <v>112402</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M4" s="7">
-        <v>356</v>
-      </c>
-      <c r="N4" s="7">
-        <v>270117</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,49 +4994,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>9234</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>6098</v>
+        <v>872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>15332</v>
+        <v>872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,10 +5045,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5060,10 +5060,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5075,10 +5075,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5104,13 +5104,13 @@
         <v>70027</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5119,13 +5119,13 @@
         <v>58064</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>170</v>
@@ -5134,13 +5134,13 @@
         <v>128091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5155,13 @@
         <v>1725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5170,13 +5170,13 @@
         <v>4458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5185,13 +5185,13 @@
         <v>6183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,49 +5253,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="D10" s="7">
-        <v>100816</v>
+        <v>157716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I10" s="7">
-        <v>94692</v>
+        <v>112402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="N10" s="7">
-        <v>195508</v>
+        <v>270117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5304,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>6959</v>
+        <v>9234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6098</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" s="7">
+        <v>18</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15332</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9505</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M11" s="7">
-        <v>21</v>
-      </c>
-      <c r="N11" s="7">
-        <v>16464</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +5355,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5370,10 +5370,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5385,10 +5385,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5408,49 +5408,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7">
-        <v>6505</v>
+        <v>102204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="I13" s="7">
-        <v>8647</v>
+        <v>95095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="N13" s="7">
-        <v>15151</v>
+        <v>197299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5459,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>9617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="7">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10191</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M14" s="7">
+        <v>26</v>
+      </c>
+      <c r="N14" s="7">
+        <v>19808</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>872</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>872</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,10 +5510,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5525,10 +5525,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5540,10 +5540,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5557,55 +5557,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>102204</v>
+        <v>100816</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="7">
+        <v>127</v>
+      </c>
+      <c r="I16" s="7">
+        <v>94692</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M16" s="7">
+        <v>256</v>
+      </c>
+      <c r="N16" s="7">
+        <v>195508</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="7">
-        <v>128</v>
-      </c>
-      <c r="I16" s="7">
-        <v>95095</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M16" s="7">
-        <v>244</v>
-      </c>
-      <c r="N16" s="7">
-        <v>197299</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,46 +5614,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6959</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
-        <v>9617</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>9505</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10191</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>21</v>
+      </c>
+      <c r="N17" s="7">
+        <v>16464</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M17" s="7">
-        <v>26</v>
-      </c>
-      <c r="N17" s="7">
-        <v>19808</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>394</v>
@@ -5665,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5680,10 +5680,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5695,10 +5695,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5724,7 +5724,7 @@
         <v>437268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>395</v>
@@ -5745,7 +5745,7 @@
         <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>1049</v>
@@ -5760,7 +5760,7 @@
         <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,7 +5775,7 @@
         <v>27535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>401</v>
@@ -5793,7 +5793,7 @@
         <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>404</v>
@@ -5808,7 +5808,7 @@
         <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>406</v>

--- a/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F97DC0-B9F3-40BE-94D8-31E89CE5B469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13558C50-89B3-443F-BCDD-91153CB05F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{475D707C-AEEF-4F4F-9FC5-9FFC1C6144B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36088360-A717-4B0D-889E-45821666D0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
   <si>
     <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>87,71%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1129 +137,1108 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>77,46%</t>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1249,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1366,39 +1345,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1450,7 +1429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1561,13 +1540,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1576,6 +1548,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1640,19 +1619,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0989C4-EB17-470B-A712-64AA917FC5B5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC84710-94D6-4828-B1BE-D42B5D988538}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1769,10 +1768,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>11254</v>
+        <v>2475</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1784,10 +1783,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>15401</v>
+        <v>2158</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1799,10 +1798,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>26655</v>
+        <v>4633</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1820,10 +1819,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>2475</v>
+        <v>11254</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1835,10 +1834,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>2158</v>
+        <v>15401</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1850,10 +1849,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>4633</v>
+        <v>26655</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1924,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>58297</v>
+        <v>10162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1939,10 +1938,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>50157</v>
+        <v>7956</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1954,10 +1953,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>108455</v>
+        <v>18118</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1975,10 +1974,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>10162</v>
+        <v>58297</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1990,10 +1989,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7">
-        <v>7956</v>
+        <v>50157</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2005,10 +2004,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="N8" s="7">
-        <v>18118</v>
+        <v>108455</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2079,10 +2078,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>101286</v>
+        <v>10345</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2094,10 +2093,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>101222</v>
+        <v>8839</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2109,10 +2108,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>202508</v>
+        <v>19184</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2130,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>10345</v>
+        <v>101286</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2145,10 +2144,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>8839</v>
+        <v>101222</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2160,10 +2159,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N11" s="7">
-        <v>19184</v>
+        <v>202508</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2234,49 +2233,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>72504</v>
+        <v>5365</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>62228</v>
+        <v>6980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>134732</v>
+        <v>12345</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2284,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="D14" s="7">
-        <v>5365</v>
+        <v>72504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>6980</v>
+        <v>62228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="N14" s="7">
-        <v>12345</v>
+        <v>134732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,55 +2382,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>82162</v>
+        <v>7881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>79025</v>
+        <v>16964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>161187</v>
+        <v>24845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,46 +2439,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <v>7881</v>
+        <v>82162</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I17" s="7">
-        <v>16964</v>
+        <v>79025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="N17" s="7">
-        <v>24845</v>
+        <v>161187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -2544,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>492</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>325504</v>
+        <v>36227</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
@@ -2559,10 +2558,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>460</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>308032</v>
+        <v>42898</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>108</v>
@@ -2574,10 +2573,10 @@
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>952</v>
+        <v>115</v>
       </c>
       <c r="N19" s="7">
-        <v>633536</v>
+        <v>79125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -2595,10 +2594,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>492</v>
       </c>
       <c r="D20" s="7">
-        <v>36227</v>
+        <v>325504</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -2610,10 +2609,10 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="I20" s="7">
-        <v>42898</v>
+        <v>308032</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -2625,10 +2624,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>115</v>
+        <v>952</v>
       </c>
       <c r="N20" s="7">
-        <v>79125</v>
+        <v>633536</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2689,6 +2688,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2709,8 +2713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA150358-4E47-4B18-838C-184760AAA2F7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2357EF-576C-4E46-A5FD-ED33F5E2E1A3}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2726,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,49 +2831,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>11885</v>
+        <v>1155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1796</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11094</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>22980</v>
+        <v>2951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,49 +2882,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>1155</v>
+        <v>11885</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>1796</v>
+        <v>11094</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>2951</v>
+        <v>22980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,49 +2986,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>55890</v>
+        <v>6312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>55333</v>
+        <v>6430</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>111223</v>
+        <v>12742</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3037,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>6312</v>
+        <v>55890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>6430</v>
+        <v>55333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="N8" s="7">
-        <v>12742</v>
+        <v>111223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,46 +3141,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>104911</v>
+        <v>9795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>100675</v>
+        <v>11924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>205586</v>
+        <v>21720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>164</v>
@@ -3188,10 +3192,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>9795</v>
+        <v>104911</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>165</v>
@@ -3203,10 +3207,10 @@
         <v>167</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>11924</v>
+        <v>100675</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>168</v>
@@ -3218,10 +3222,10 @@
         <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="N11" s="7">
-        <v>21720</v>
+        <v>205586</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>171</v>
@@ -3230,7 +3234,7 @@
         <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,49 +3296,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>72704</v>
+        <v>7049</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6304</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="7">
-        <v>105</v>
-      </c>
-      <c r="I13" s="7">
-        <v>68193</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7">
+        <v>13353</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M13" s="7">
-        <v>217</v>
-      </c>
-      <c r="N13" s="7">
-        <v>140897</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,49 +3347,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>7049</v>
+        <v>72704</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>105</v>
+      </c>
+      <c r="I14" s="7">
+        <v>68193</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="7">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6304</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>217</v>
+      </c>
+      <c r="N14" s="7">
+        <v>140897</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="M14" s="7">
-        <v>21</v>
-      </c>
-      <c r="N14" s="7">
-        <v>13353</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,55 +3445,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>84460</v>
+        <v>11841</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7884</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="7">
-        <v>109</v>
-      </c>
-      <c r="I16" s="7">
-        <v>85093</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>28</v>
+      </c>
+      <c r="N16" s="7">
+        <v>19724</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M16" s="7">
-        <v>223</v>
-      </c>
-      <c r="N16" s="7">
-        <v>169553</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,49 +3502,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7">
-        <v>11841</v>
+        <v>84460</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>109</v>
+      </c>
+      <c r="I17" s="7">
+        <v>85093</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7884</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>223</v>
+      </c>
+      <c r="N17" s="7">
+        <v>169553</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M17" s="7">
-        <v>28</v>
-      </c>
-      <c r="N17" s="7">
-        <v>19724</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,49 +3606,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>472</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>329849</v>
+        <v>36153</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>50</v>
+      </c>
+      <c r="I19" s="7">
+        <v>34337</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="7">
-        <v>455</v>
-      </c>
-      <c r="I19" s="7">
-        <v>320390</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>102</v>
+      </c>
+      <c r="N19" s="7">
+        <v>70490</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M19" s="7">
-        <v>927</v>
-      </c>
-      <c r="N19" s="7">
-        <v>650239</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3657,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="D20" s="7">
-        <v>36153</v>
+        <v>329849</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>455</v>
+      </c>
+      <c r="I20" s="7">
+        <v>320390</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H20" s="7">
-        <v>50</v>
-      </c>
-      <c r="I20" s="7">
-        <v>34337</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>927</v>
+      </c>
+      <c r="N20" s="7">
+        <v>650239</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>102</v>
-      </c>
-      <c r="N20" s="7">
-        <v>70490</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,6 +3751,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3767,8 +3776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E3830B-B582-41D9-8B8B-76E377E7F8B7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED0E7F0-8432-4250-8D44-A303FF06D646}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3784,7 +3793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,49 +3894,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>14806</v>
+        <v>671</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1133</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1804</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13869</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="7">
-        <v>32</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28675</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3945,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>671</v>
+        <v>14806</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="7">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13869</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="7">
+        <v>32</v>
+      </c>
+      <c r="N5" s="7">
+        <v>28675</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1133</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1804</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +4049,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>55656</v>
+        <v>4664</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4848</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="7">
-        <v>75</v>
-      </c>
-      <c r="I7" s="7">
-        <v>50990</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>13</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9512</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="M7" s="7">
-        <v>148</v>
-      </c>
-      <c r="N7" s="7">
-        <v>106646</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4100,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>4664</v>
+        <v>55656</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="7">
+        <v>75</v>
+      </c>
+      <c r="I8" s="7">
+        <v>50990</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4848</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>148</v>
+      </c>
+      <c r="N8" s="7">
+        <v>106646</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="M8" s="7">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7">
-        <v>9512</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4204,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>105291</v>
+        <v>3301</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10685</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7">
+        <v>13986</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="7">
-        <v>152</v>
-      </c>
-      <c r="I10" s="7">
-        <v>97276</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="7">
-        <v>304</v>
-      </c>
-      <c r="N10" s="7">
-        <v>202567</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4255,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
-        <v>3301</v>
+        <v>105291</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="7">
+        <v>152</v>
+      </c>
+      <c r="I11" s="7">
+        <v>97276</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="7">
+        <v>304</v>
+      </c>
+      <c r="N11" s="7">
+        <v>202567</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10685</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M11" s="7">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13986</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,49 +4359,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>72373</v>
+        <v>4490</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3088</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7578</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H13" s="7">
-        <v>114</v>
-      </c>
-      <c r="I13" s="7">
-        <v>72500</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M13" s="7">
-        <v>218</v>
-      </c>
-      <c r="N13" s="7">
-        <v>144873</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +4410,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>4490</v>
+        <v>72373</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="7">
+        <v>114</v>
+      </c>
+      <c r="I14" s="7">
+        <v>72500</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M14" s="7">
+        <v>218</v>
+      </c>
+      <c r="N14" s="7">
+        <v>144873</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3088</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7578</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,55 +4508,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>98988</v>
+        <v>7769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>99069</v>
+        <v>9938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>198057</v>
+        <v>17707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4565,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D17" s="7">
-        <v>7769</v>
+        <v>98988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="I17" s="7">
-        <v>9938</v>
+        <v>99069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="N17" s="7">
-        <v>17707</v>
+        <v>198057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,49 +4669,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>347113</v>
+        <v>20895</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="7">
+        <v>41</v>
+      </c>
+      <c r="I19" s="7">
+        <v>29692</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M19" s="7">
+        <v>71</v>
+      </c>
+      <c r="N19" s="7">
+        <v>50587</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" s="7">
-        <v>487</v>
-      </c>
-      <c r="I19" s="7">
-        <v>333704</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="7">
-        <v>967</v>
-      </c>
-      <c r="N19" s="7">
-        <v>680817</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4720,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="D20" s="7">
-        <v>20895</v>
+        <v>347113</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="7">
+        <v>487</v>
+      </c>
+      <c r="I20" s="7">
+        <v>333704</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M20" s="7">
+        <v>967</v>
+      </c>
+      <c r="N20" s="7">
+        <v>680817</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>41</v>
-      </c>
-      <c r="I20" s="7">
-        <v>29692</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="7">
-        <v>71</v>
-      </c>
-      <c r="N20" s="7">
-        <v>50587</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,6 +4814,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4825,8 +4839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1F86BE-6989-4C99-9D5A-BA031F32B281}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B9F3DC-3D2C-484D-9836-DD5F6974075A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4842,7 +4856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4943,49 +4957,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6505</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>872</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>872</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8647</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="7">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15151</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,49 +5008,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8647</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="7">
+        <v>23</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15151</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>872</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>872</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,49 +5112,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>70027</v>
+        <v>1725</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4458</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H7" s="7">
-        <v>89</v>
-      </c>
-      <c r="I7" s="7">
-        <v>58064</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6183</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="M7" s="7">
-        <v>170</v>
-      </c>
-      <c r="N7" s="7">
-        <v>128091</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5163,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7">
-        <v>1725</v>
+        <v>70027</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="7">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>58064</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4458</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>170</v>
+      </c>
+      <c r="N8" s="7">
+        <v>128091</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6183</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,49 +5267,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>157716</v>
+        <v>9234</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6098</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15332</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="7">
-        <v>156</v>
-      </c>
-      <c r="I10" s="7">
-        <v>112402</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M10" s="7">
-        <v>356</v>
-      </c>
-      <c r="N10" s="7">
-        <v>270117</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5318,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>9234</v>
+        <v>157716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="I11" s="7">
-        <v>6098</v>
+        <v>112402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="N11" s="7">
-        <v>15332</v>
+        <v>270117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,49 +5422,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>102204</v>
+        <v>9617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>95095</v>
+        <v>10191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>197299</v>
+        <v>19808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5473,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>9617</v>
+        <v>102204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7">
-        <v>10191</v>
+        <v>95095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="N14" s="7">
-        <v>19808</v>
+        <v>197299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,55 +5571,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>100816</v>
+        <v>6959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>94692</v>
+        <v>9505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>195508</v>
+        <v>16464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +5628,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7">
-        <v>6959</v>
+        <v>100816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>9505</v>
+        <v>94692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="N17" s="7">
-        <v>16464</v>
+        <v>195508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,49 +5732,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>535</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7">
-        <v>437268</v>
+        <v>27535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
-        <v>514</v>
+        <v>40</v>
       </c>
       <c r="I19" s="7">
-        <v>368900</v>
+        <v>31124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
-        <v>1049</v>
+        <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>806166</v>
+        <v>58660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5783,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>535</v>
       </c>
       <c r="D20" s="7">
-        <v>27535</v>
+        <v>437268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="I20" s="7">
-        <v>31124</v>
+        <v>368900</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>75</v>
+        <v>1049</v>
       </c>
       <c r="N20" s="7">
-        <v>58660</v>
+        <v>806166</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,6 +5877,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13558C50-89B3-443F-BCDD-91153CB05F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E05411-BBF7-4F3C-A8EA-9A0DE16F2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36088360-A717-4B0D-889E-45821666D0B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C9ABE35-AA5A-4498-8C1B-ED0825E140B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="408">
   <si>
     <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1168 +77,1192 @@
     <t>18,03%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>94,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC84710-94D6-4828-B1BE-D42B5D988538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E99F073-C837-496F-9813-AA04B0BD7594}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2400,7 +2424,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2409,13 +2433,13 @@
         <v>16964</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -2424,13 +2448,13 @@
         <v>24845</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,10 +2472,10 @@
         <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -2460,13 +2484,13 @@
         <v>79025</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -2475,10 +2499,10 @@
         <v>161187</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -2555,7 +2579,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2564,13 +2588,13 @@
         <v>42898</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -2579,13 +2603,13 @@
         <v>79125</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2624,13 @@
         <v>325504</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -2615,13 +2639,13 @@
         <v>308032</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>952</v>
@@ -2630,13 +2654,13 @@
         <v>633536</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2357EF-576C-4E46-A5FD-ED33F5E2E1A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82519544-8512-4142-89E1-251F2160E760}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,13 +2861,13 @@
         <v>1155</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2852,13 +2876,13 @@
         <v>1796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2867,13 +2891,13 @@
         <v>2951</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2912,13 @@
         <v>11885</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2903,13 +2927,13 @@
         <v>11094</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -2918,13 +2942,13 @@
         <v>22980</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3016,13 @@
         <v>6312</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3007,13 +3031,13 @@
         <v>6430</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3022,13 +3046,13 @@
         <v>12742</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3067,13 @@
         <v>55890</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3058,13 +3082,13 @@
         <v>55333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>155</v>
@@ -3073,13 +3097,13 @@
         <v>111223</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3171,13 @@
         <v>9795</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3162,13 +3186,13 @@
         <v>11924</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3177,13 +3201,13 @@
         <v>21720</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3222,13 @@
         <v>104911</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -3213,13 +3237,13 @@
         <v>100675</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>306</v>
@@ -3228,13 +3252,13 @@
         <v>205586</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3651,13 @@
         <v>34337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -3642,13 +3666,13 @@
         <v>70490</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3687,13 @@
         <v>329849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>455</v>
@@ -3678,13 +3702,13 @@
         <v>320390</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>927</v>
@@ -3693,13 +3717,13 @@
         <v>650239</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED0E7F0-8432-4250-8D44-A303FF06D646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1843B88A-7E19-4654-B0E4-5F6735F61F4B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3793,7 +3817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,13 +3924,13 @@
         <v>671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3915,13 +3939,13 @@
         <v>1133</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3930,13 +3954,13 @@
         <v>1804</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3975,13 @@
         <v>14806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3966,13 +3990,13 @@
         <v>13869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -3981,13 +4005,13 @@
         <v>28675</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4079,13 @@
         <v>4664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4070,13 +4094,13 @@
         <v>4848</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4085,13 +4109,13 @@
         <v>9512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4130,13 @@
         <v>55656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -4121,13 +4145,13 @@
         <v>50990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -4136,13 +4160,13 @@
         <v>106646</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4234,13 @@
         <v>3301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4225,13 +4249,13 @@
         <v>10685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4240,13 +4264,13 @@
         <v>13986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4285,13 @@
         <v>105291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -4276,13 +4300,13 @@
         <v>97276</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>304</v>
@@ -4291,13 +4315,13 @@
         <v>202567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4389,13 @@
         <v>4490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4380,13 +4404,13 @@
         <v>3088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4395,13 +4419,13 @@
         <v>7578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4440,13 @@
         <v>72373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -4431,13 +4455,13 @@
         <v>72500</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -4446,13 +4470,13 @@
         <v>144873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4544,13 @@
         <v>7769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4535,13 +4559,13 @@
         <v>9938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4550,13 +4574,13 @@
         <v>17707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4595,13 @@
         <v>98988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>131</v>
@@ -4586,13 +4610,13 @@
         <v>99069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -4601,13 +4625,13 @@
         <v>198057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4699,13 @@
         <v>20895</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4690,13 +4714,13 @@
         <v>29692</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4705,13 +4729,13 @@
         <v>50587</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4750,13 @@
         <v>347113</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>487</v>
@@ -4741,13 +4765,13 @@
         <v>333704</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -4756,13 +4780,13 @@
         <v>680817</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,7 +4842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B9F3DC-3D2C-484D-9836-DD5F6974075A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80405A2F-0357-4DFB-A76A-3783912A2387}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,7 +4880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4963,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4978,13 +5002,13 @@
         <v>872</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4993,13 +5017,13 @@
         <v>872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,10 +5038,10 @@
         <v>6505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5029,13 +5053,13 @@
         <v>8647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -5044,13 +5068,13 @@
         <v>15151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5142,13 @@
         <v>1725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5133,13 +5157,13 @@
         <v>4458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5148,13 +5172,13 @@
         <v>6183</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5193,13 @@
         <v>70027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5184,13 +5208,13 @@
         <v>58064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>170</v>
@@ -5199,13 +5223,13 @@
         <v>128091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5297,13 @@
         <v>9234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5288,13 +5312,13 @@
         <v>6098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5303,13 +5327,13 @@
         <v>15332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5348,13 @@
         <v>157716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>156</v>
@@ -5339,13 +5363,13 @@
         <v>112402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>356</v>
@@ -5354,13 +5378,13 @@
         <v>270117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5452,13 @@
         <v>9617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5443,13 +5467,13 @@
         <v>10191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5458,13 +5482,13 @@
         <v>19808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5503,13 @@
         <v>102204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5494,13 +5518,13 @@
         <v>95095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
@@ -5509,13 +5533,13 @@
         <v>197299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5607,13 @@
         <v>6959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5598,13 +5622,13 @@
         <v>9505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5616,10 +5640,10 @@
         <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5658,13 @@
         <v>100816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -5649,13 +5673,13 @@
         <v>94692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>256</v>
@@ -5667,10 +5691,10 @@
         <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5762,13 @@
         <v>27535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -5753,13 +5777,13 @@
         <v>31124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -5768,13 +5792,13 @@
         <v>58660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5813,13 @@
         <v>437268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>514</v>
@@ -5804,13 +5828,13 @@
         <v>368900</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>1049</v>
@@ -5819,13 +5843,13 @@
         <v>806166</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E05411-BBF7-4F3C-A8EA-9A0DE16F2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0803936D-8610-476E-A07D-224F40EFD988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C9ABE35-AA5A-4498-8C1B-ED0825E140B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{005BF150-77F7-4665-BDF2-B41CE7FAFC68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="408">
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 50,71%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1201 +68,1057 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2016 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E99F073-C837-496F-9813-AA04B0BD7594}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FFD692-C401-4978-BDD2-50C7E6657B44}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1792,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>2475</v>
+        <v>10115</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1807,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>2158</v>
+        <v>12637</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1822,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>4633</v>
+        <v>22751</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1843,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7">
-        <v>11254</v>
+        <v>65558</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1858,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="I5" s="7">
-        <v>15401</v>
+        <v>69551</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1873,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="N5" s="7">
-        <v>26655</v>
+        <v>135110</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1894,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1909,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1947,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>10162</v>
+        <v>8839</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1962,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>7956</v>
+        <v>10345</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1977,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>18118</v>
+        <v>19184</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1998,10 +1854,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>58297</v>
+        <v>101222</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2013,10 +1869,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I8" s="7">
-        <v>50157</v>
+        <v>101286</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2028,10 +1884,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>108455</v>
+        <v>202508</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2049,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2064,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2079,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2102,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>10345</v>
+        <v>6980</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2117,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>8839</v>
+        <v>5365</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2129,22 +1985,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12345</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>30</v>
-      </c>
-      <c r="N10" s="7">
-        <v>19184</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,49 +2009,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7">
-        <v>101286</v>
+        <v>62228</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>114</v>
+      </c>
+      <c r="I11" s="7">
+        <v>72504</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>160</v>
-      </c>
-      <c r="I11" s="7">
-        <v>101222</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>218</v>
+      </c>
+      <c r="N11" s="7">
+        <v>134732</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>314</v>
-      </c>
-      <c r="N11" s="7">
-        <v>202508</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2219,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2234,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2251,55 +2107,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>5365</v>
+        <v>16964</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>6980</v>
+        <v>7881</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>33</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24845</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>19</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12345</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,49 +2164,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>72504</v>
+        <v>79025</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>120</v>
+      </c>
+      <c r="I14" s="7">
+        <v>82162</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>104</v>
-      </c>
-      <c r="I14" s="7">
-        <v>62228</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>222</v>
+      </c>
+      <c r="N14" s="7">
+        <v>161187</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>218</v>
-      </c>
-      <c r="N14" s="7">
-        <v>134732</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2374,10 +2230,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2389,10 +2245,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2406,55 +2262,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>7881</v>
+        <v>42898</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>53</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36227</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16964</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>115</v>
+      </c>
+      <c r="N16" s="7">
+        <v>79125</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24845</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,49 +2319,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="D17" s="7">
-        <v>82162</v>
+        <v>308032</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>492</v>
+      </c>
+      <c r="I17" s="7">
+        <v>325504</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>952</v>
+      </c>
+      <c r="N17" s="7">
+        <v>633536</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="7">
-        <v>79025</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" s="7">
-        <v>222</v>
-      </c>
-      <c r="N17" s="7">
-        <v>161187</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2529,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2544,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2560,171 +2416,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>36227</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="7">
-        <v>62</v>
-      </c>
-      <c r="I19" s="7">
-        <v>42898</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>115</v>
-      </c>
-      <c r="N19" s="7">
-        <v>79125</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>492</v>
-      </c>
-      <c r="D20" s="7">
-        <v>325504</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>460</v>
-      </c>
-      <c r="I20" s="7">
-        <v>308032</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>952</v>
-      </c>
-      <c r="N20" s="7">
-        <v>633536</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2737,8 +2437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82519544-8512-4142-89E1-251F2160E760}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600D1B57-E797-4663-822B-6E1CEEA1842C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2754,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2855,49 +2555,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>1155</v>
+        <v>8226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>1796</v>
+        <v>7468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>2951</v>
+        <v>15694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,49 +2606,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7">
-        <v>11885</v>
+        <v>66428</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>11094</v>
+        <v>67774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="N5" s="7">
-        <v>22980</v>
+        <v>134202</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>13040</v>
+        <v>74654</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2972,10 +2672,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>75242</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2987,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="N6" s="7">
-        <v>25931</v>
+        <v>149896</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3010,49 +2710,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>6312</v>
+        <v>11924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>6430</v>
+        <v>9795</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>12742</v>
+        <v>21720</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,49 +2761,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>55890</v>
+        <v>100675</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="I8" s="7">
-        <v>55333</v>
+        <v>104911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="N8" s="7">
-        <v>111223</v>
+        <v>205586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>62202</v>
+        <v>112599</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3127,10 +2827,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="I9" s="7">
-        <v>61763</v>
+        <v>114706</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3142,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="N9" s="7">
-        <v>123965</v>
+        <v>227306</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3165,49 +2865,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>9795</v>
+        <v>6304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>11924</v>
+        <v>7049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>21720</v>
+        <v>13353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,49 +2916,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>105</v>
+      </c>
+      <c r="D11" s="7">
+        <v>68193</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
+        <v>112</v>
+      </c>
+      <c r="I11" s="7">
+        <v>72704</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="7">
-        <v>104911</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="7">
-        <v>152</v>
-      </c>
-      <c r="I11" s="7">
-        <v>100675</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>205586</v>
+        <v>140897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>114706</v>
+        <v>74497</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3282,10 +2982,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>112599</v>
+        <v>79753</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3297,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>227306</v>
+        <v>154250</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3314,7 +3014,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3323,46 +3023,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>7049</v>
+        <v>7884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>6304</v>
+        <v>11841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>13353</v>
+        <v>19724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,49 +3071,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>72704</v>
+        <v>85093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>68193</v>
+        <v>84460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N14" s="7">
-        <v>140897</v>
+        <v>169553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>79753</v>
+        <v>92977</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3437,10 +3137,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>74497</v>
+        <v>96301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3452,10 +3152,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3469,55 +3169,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>11841</v>
+        <v>34337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>7884</v>
+        <v>36153</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>19724</v>
+        <v>70490</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,49 +3226,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>114</v>
+        <v>455</v>
       </c>
       <c r="D17" s="7">
-        <v>84460</v>
+        <v>320390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="I17" s="7">
-        <v>85093</v>
+        <v>329849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>223</v>
+        <v>927</v>
       </c>
       <c r="N17" s="7">
-        <v>169553</v>
+        <v>650239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>505</v>
       </c>
       <c r="D18" s="7">
-        <v>96301</v>
+        <v>354727</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3592,10 +3292,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="I18" s="7">
-        <v>92977</v>
+        <v>366002</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3607,10 +3307,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>1029</v>
       </c>
       <c r="N18" s="7">
-        <v>189277</v>
+        <v>720729</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3623,171 +3323,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7">
-        <v>36153</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>50</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34337</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>102</v>
-      </c>
-      <c r="N19" s="7">
-        <v>70490</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>472</v>
-      </c>
-      <c r="D20" s="7">
-        <v>329849</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>455</v>
-      </c>
-      <c r="I20" s="7">
-        <v>320390</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>927</v>
-      </c>
-      <c r="N20" s="7">
-        <v>650239</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>524</v>
-      </c>
-      <c r="D21" s="7">
-        <v>366002</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>505</v>
-      </c>
-      <c r="I21" s="7">
-        <v>354727</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1029</v>
-      </c>
-      <c r="N21" s="7">
-        <v>720729</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3800,8 +3344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1843B88A-7E19-4654-B0E4-5F6735F61F4B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD823890-1ABC-4711-82B9-54C3F7DFF751}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3817,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,49 +3462,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>671</v>
+        <v>5981</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1133</v>
+        <v>5335</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>1804</v>
+        <v>11316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +3513,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>14806</v>
+        <v>64860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="I5" s="7">
-        <v>13869</v>
+        <v>70462</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="N5" s="7">
-        <v>28675</v>
+        <v>135321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>70841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4035,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I6" s="7">
-        <v>15002</v>
+        <v>75797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4050,10 +3594,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="N6" s="7">
-        <v>30479</v>
+        <v>146637</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4073,49 +3617,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>4664</v>
+        <v>10685</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4848</v>
+        <v>3301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>9512</v>
+        <v>13986</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,49 +3668,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>55656</v>
+        <v>97276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>50990</v>
+        <v>105291</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="N8" s="7">
-        <v>106646</v>
+        <v>202567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>60320</v>
+        <v>107961</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4190,10 +3734,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>55838</v>
+        <v>108592</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4205,10 +3749,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="N9" s="7">
-        <v>116158</v>
+        <v>216553</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4231,46 +3775,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3301</v>
+        <v>3088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>10685</v>
+        <v>4490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>13986</v>
+        <v>7578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,49 +3823,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>105291</v>
+        <v>72500</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>97276</v>
+        <v>72373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="N11" s="7">
-        <v>202567</v>
+        <v>144873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4345,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>107961</v>
+        <v>76863</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4360,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>216553</v>
+        <v>152451</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4377,55 +3921,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>4490</v>
+        <v>9938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>3088</v>
+        <v>7769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>7578</v>
+        <v>17707</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,49 +3978,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>72373</v>
+        <v>99069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>72500</v>
+        <v>98988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="N14" s="7">
-        <v>144873</v>
+        <v>198057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>76863</v>
+        <v>109007</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4500,10 +4044,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
-        <v>75588</v>
+        <v>106757</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4515,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N15" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4532,55 +4076,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>7769</v>
+        <v>29692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>9938</v>
+        <v>20895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>17707</v>
+        <v>50587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>134</v>
+        <v>487</v>
       </c>
       <c r="D17" s="7">
-        <v>98988</v>
+        <v>333704</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>131</v>
+        <v>480</v>
       </c>
       <c r="I17" s="7">
-        <v>99069</v>
+        <v>347113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
-        <v>265</v>
+        <v>967</v>
       </c>
       <c r="N17" s="7">
-        <v>198057</v>
+        <v>680818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>528</v>
       </c>
       <c r="D18" s="7">
-        <v>106757</v>
+        <v>363396</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4655,10 +4199,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="I18" s="7">
-        <v>109007</v>
+        <v>368008</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4670,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>289</v>
+        <v>1038</v>
       </c>
       <c r="N18" s="7">
-        <v>215764</v>
+        <v>731405</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4686,171 +4230,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20895</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="7">
-        <v>29692</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>71</v>
-      </c>
-      <c r="N19" s="7">
-        <v>50587</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>480</v>
-      </c>
-      <c r="D20" s="7">
-        <v>347113</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>487</v>
-      </c>
-      <c r="I20" s="7">
-        <v>333704</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>967</v>
-      </c>
-      <c r="N20" s="7">
-        <v>680817</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>510</v>
-      </c>
-      <c r="D21" s="7">
-        <v>368008</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>528</v>
-      </c>
-      <c r="I21" s="7">
-        <v>363396</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1038</v>
-      </c>
-      <c r="N21" s="7">
-        <v>731404</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4863,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80405A2F-0357-4DFB-A76A-3783912A2387}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516174CC-F9F6-4C79-B57F-4742DBBBD789}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4880,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4981,49 +4369,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>872</v>
+        <v>1870</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>872</v>
+        <v>7143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>33</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,49 +4420,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7">
-        <v>6505</v>
+        <v>64494</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I5" s="7">
-        <v>8647</v>
+        <v>83379</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="N5" s="7">
-        <v>15151</v>
+        <v>147872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>6505</v>
+        <v>69766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5098,10 +4486,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>9519</v>
+        <v>85249</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5113,10 +4501,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>16023</v>
+        <v>155015</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5136,49 +4524,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>1725</v>
+        <v>5981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>4458</v>
+        <v>9378</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>6183</v>
+        <v>15360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,49 +4575,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D8" s="7">
-        <v>70027</v>
+        <v>107752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="I8" s="7">
-        <v>58064</v>
+        <v>157998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="N8" s="7">
-        <v>128091</v>
+        <v>265749</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D9" s="7">
-        <v>71752</v>
+        <v>113733</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5253,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="I9" s="7">
-        <v>62522</v>
+        <v>167376</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5268,10 +4656,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="N9" s="7">
-        <v>134274</v>
+        <v>281109</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5291,49 +4679,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>9234</v>
+        <v>10076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>6098</v>
+        <v>9747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>15332</v>
+        <v>19823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,49 +4730,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>157716</v>
+        <v>96879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7">
-        <v>112402</v>
+        <v>110500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="N11" s="7">
-        <v>270117</v>
+        <v>207379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>166950</v>
+        <v>106955</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5408,10 +4796,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>118500</v>
+        <v>120247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5423,10 +4811,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="N12" s="7">
-        <v>285449</v>
+        <v>227202</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5440,7 +4828,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5449,46 +4837,46 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>9617</v>
+        <v>9028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>10191</v>
+        <v>6884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>19808</v>
+        <v>15913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,49 +4885,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>102204</v>
+        <v>92151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I14" s="7">
-        <v>95095</v>
+        <v>104687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="N14" s="7">
-        <v>197299</v>
+        <v>196838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>111821</v>
+        <v>101179</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5563,10 +4951,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>105286</v>
+        <v>111571</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5578,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N15" s="7">
-        <v>217107</v>
+        <v>212751</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5595,55 +4983,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>6959</v>
+        <v>30358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>9505</v>
+        <v>27880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N16" s="7">
-        <v>16464</v>
+        <v>58238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,49 +5040,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>129</v>
+        <v>514</v>
       </c>
       <c r="D17" s="7">
-        <v>100816</v>
+        <v>361275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>535</v>
       </c>
       <c r="I17" s="7">
-        <v>94692</v>
+        <v>456564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
-        <v>256</v>
+        <v>1049</v>
       </c>
       <c r="N17" s="7">
-        <v>195508</v>
+        <v>817838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="D18" s="7">
-        <v>107775</v>
+        <v>391633</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5718,10 +5106,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>570</v>
       </c>
       <c r="I18" s="7">
-        <v>104197</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5733,10 +5121,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>211972</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5749,171 +5137,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27535</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H19" s="7">
-        <v>40</v>
-      </c>
-      <c r="I19" s="7">
-        <v>31124</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M19" s="7">
-        <v>75</v>
-      </c>
-      <c r="N19" s="7">
-        <v>58660</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>535</v>
-      </c>
-      <c r="D20" s="7">
-        <v>437268</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H20" s="7">
-        <v>514</v>
-      </c>
-      <c r="I20" s="7">
-        <v>368900</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1049</v>
-      </c>
-      <c r="N20" s="7">
-        <v>806166</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>570</v>
-      </c>
-      <c r="D21" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>554</v>
-      </c>
-      <c r="I21" s="7">
-        <v>400024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1124</v>
-      </c>
-      <c r="N21" s="7">
-        <v>864826</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
